--- a/biology/Médecine/CIM-10_Chapitre_11___Maladies_de_l'appareil_digestif/CIM-10_Chapitre_11___Maladies_de_l'appareil_digestif.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_11___Maladies_de_l'appareil_digestif/CIM-10_Chapitre_11___Maladies_de_l'appareil_digestif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_11_:_Maladies_de_l%27appareil_digestif</t>
+          <t>CIM-10_Chapitre_11_:_Maladies_de_l'appareil_digestif</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article développe le chapitre XI de la classification internationale des maladies.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_11_:_Maladies_de_l%27appareil_digestif</t>
+          <t>CIM-10_Chapitre_11_:_Maladies_de_l'appareil_digestif</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Liste des classes du chapitre 11</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">CIM-10 Chapitre 11 : Maladies de l'appareil digestif (K00-K93)
-(K00-K14) Maladies de la cavité buccale, des glandes salivaires et des maxillaires
-(K00) Troubles de l'odontogénèse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_11_:_Maladies_de_l'appareil_digestif</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_11_:_Maladies_de_l%27appareil_digestif</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(K00-K14) Maladies de la cavité buccale, des glandes salivaires et des maxillaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(K00) Troubles de l'odontogénèse
 (K00.0) Anodontie
 (K00.1) Dents surnuméraires
 (K00.2) Anomalies de volume et de forme des dents
@@ -636,9 +685,43 @@
 (K14.5) Langue plicaturée
 (K14.6) Glossodynie
 (K14.8) Autres maladies de la langue
-(K14.9) Maladie de la langue, sans précision
-(K20-K31) Maladies de l'œsophage, de l'estomac et du duodénum
-(K20) Œsophagite
+(K14.9) Maladie de la langue, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_11_:_Maladies_de_l'appareil_digestif</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_11_:_Maladies_de_l%27appareil_digestif</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(K20-K31) Maladies de l'œsophage, de l'estomac et du duodénum</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(K20) Œsophagite
 (K21) Reflux gastro-œsophagien
 (K21.0) Reflux gastro-œsophagien avec œsophagite
 (K21.9) Reflux gastro-œsophagien sans œsophagite
@@ -692,9 +775,43 @@
 (K31.5) Obstruction du duodénum
 (K31.6) Fistule de l'estomac et du duodénum
 (K31.8) Autres maladies précisées de l'estomac et du duodénum
-(K31.9) Maladie de l'estomac et du duodénum, sans précision
-(K35-K38) Maladies de l'appendice
-(K35) Appendicite aiguë
+(K31.9) Maladie de l'estomac et du duodénum, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_11_:_Maladies_de_l'appareil_digestif</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_11_:_Maladies_de_l%27appareil_digestif</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(K35-K38) Maladies de l'appendice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(K35) Appendicite aiguë
 (K35.0) Appendicite aiguë avec péritonite généralisée
 (K35.1) Appendicite aiguë avec abcès péritonéal
 (K35.9) Appendicite aiguë, sans précision
@@ -706,9 +823,43 @@
 (K38.2) Diverticule de l'appendice
 (K38.3) Fistule de l'appendice
 (K38.8) Autres maladies précisées de l'appendice
-(K38.9) Maladie de l'appendice, sans précision
-(K40-K46) Hernies
-(K40) Hernie inguinale
+(K38.9) Maladie de l'appendice, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_11_:_Maladies_de_l'appareil_digestif</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_11_:_Maladies_de_l%27appareil_digestif</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(K40-K46) Hernies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(K40) Hernie inguinale
 (K40.0) Hernie inguinale bilatérale, avec occlusion, sans gangrène
 (K40.1) Hernie inguinale bilatérale, avec gangrène
 (K40.2) Hernie inguinale bilatérale, sans occlusion ni gangrène
@@ -741,9 +892,43 @@
 (K46) Hernie abdominale non précisée
 (K46.0) Hernie abdominale non précisée, avec occlusion, sans gangrène
 (K46.1) Hernie abdominale non précisée, avec gangrène
-(K46.9) Hernie abdominale non précisée, sans occlusion ni gangrène
-(K50-K52) Entérites et colites non infectieuses
-(K50) Maladie de Crohn (entérite régionale)
+(K46.9) Hernie abdominale non précisée, sans occlusion ni gangrène</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_11_:_Maladies_de_l'appareil_digestif</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_11_:_Maladies_de_l%27appareil_digestif</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(K50-K52) Entérites et colites non infectieuses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(K50) Maladie de Crohn (entérite régionale)
 (K50.0) Maladie de Crohn de l'intestin grêle
 (K50.1) Maladie de Crohn du gros intestin
 (K50.8) Autres formes de la maladie de Crohn
@@ -762,9 +947,43 @@
 (K52.1) Gastro-entérite et colite toxiques
 (K52.2) Gastro-entérite et colite allergiques et alimentaires
 (K52.8) Autres gastro-entérites et colites non infectieuses précisées
-(K52.9) Gastro-entérite et colite non infectieuses, sans précision
-(K55-K63) Autres maladies de l'intestin
-(K55) Troubles vasculaires de l'intestin
+(K52.9) Gastro-entérite et colite non infectieuses, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_11_:_Maladies_de_l'appareil_digestif</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_11_:_Maladies_de_l%27appareil_digestif</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(K55-K63) Autres maladies de l'intestin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(K55) Troubles vasculaires de l'intestin
 (K55.0) Troubles vasculaires aigus de l'intestin
 (K55.1) Troubles vasculaires chroniques de l'intestin
 (K55.2) Angiodysplasie du côlon
@@ -830,9 +1049,43 @@
 (K63.3) Ulcère de l'intestin
 (K63.4) Entéroptose
 (K63.8) Autres maladies précisées de l'intestin
-(K63.9) Maladie de l'intestin, sans précision
-(K65-K67) Maladies du péritoine
-(K65) Péritonite
+(K63.9) Maladie de l'intestin, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_11_:_Maladies_de_l'appareil_digestif</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_11_:_Maladies_de_l%27appareil_digestif</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(K65-K67) Maladies du péritoine</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(K65) Péritonite
 (K65.0) Péritonite aiguë
 (K65.8) Autres péritonites
 (K65.9) Péritonite, sans précision
@@ -846,9 +1099,43 @@
 (K67.1) Péritonite gonococcique (A54.8+)
 (K67.2) Péritonite syphilitique (A52.7+)
 (K67.3) Péritonite tuberculeuse (A18.3+)
-(K67.8) Autres atteintes péritonéales au cours de maladies infectieuses classées ailleurs
-(K70-K77) Maladies du foie
-(K70) Maladie alcoolique du foie
+(K67.8) Autres atteintes péritonéales au cours de maladies infectieuses classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_11_:_Maladies_de_l'appareil_digestif</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_11_:_Maladies_de_l%27appareil_digestif</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(K70-K77) Maladies du foie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(K70) Maladie alcoolique du foie
 (K70.0) Cirrhose alcoolique graisseuse
 (K70.1) Hépatite alcoolique
 (K70.2) Fibrose et sclérose alcooliques du foie
@@ -904,9 +1191,43 @@
 (K76.9) Maladie du foie, sans précision
 (K77) Atteintes hépatiques au cours de maladies classées ailleurs
 (K77.0) Atteintes hépatiques au cours de maladies infectieuses et parasitaires classées ailleurs
-(K77.8) Atteintes hépatiques au cours d'autres maladies classées ailleurs
-(K80-K87) Maladies de la vésicule biliaire, des voies biliaires et du pancréas
-(K80) Cholélithiase
+(K77.8) Atteintes hépatiques au cours d'autres maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_11_:_Maladies_de_l'appareil_digestif</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_11_:_Maladies_de_l%27appareil_digestif</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(K80-K87) Maladies de la vésicule biliaire, des voies biliaires et du pancréas</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(K80) Cholélithiase
 (K80.0) Calcul de la vésicule biliaire avec cholécystite aiguë
 (K80.1) Calcul de la vésicule biliaire avec une autre forme de cholécystite
 (K80.2) Calcul de la vésicule biliaire sans cholécystite
@@ -946,9 +1267,43 @@
 (K86.9) Maladie du pancréas, sans précision
 (K87) Atteintes de la vésicule biliaire, des voies biliaires et du pancréas au cours de maladies classées ailleurs
 (K87.0) Atteinte de la vésicule biliaire et des voies biliaires au cours de maladies classées ailleurs
-(K87.1) Atteinte du pancréas au cours de maladies classées ailleurs
-(K90-K93) Autres maladies de l'appareil digestif
-(K90) Malabsorption intestinale
+(K87.1) Atteinte du pancréas au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_11_:_Maladies_de_l'appareil_digestif</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_11_:_Maladies_de_l%27appareil_digestif</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(K90-K93) Autres maladies de l'appareil digestif</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(K90) Malabsorption intestinale
 (K90.0) Maladie cœliaque
 (K90.1) Sprue tropicale
 (K90.2) Syndrome de l'anse borgne, non classé ailleurs
